--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadisharifi/Documents/CSE6242/Project/final-report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E318F49-6B58-134A-B45C-A357B2E05437}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA22F83-05D8-8542-8DB2-68B892D511F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20140" yWindow="-19420" windowWidth="27620" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1657,8 +1657,8 @@
   <dimension ref="A1:BZ35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -3915,7 +3915,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="75">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E23" s="76">
         <f>F21</f>
@@ -4186,7 +4186,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="84">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="85">
         <f>F24</f>
@@ -4281,7 +4281,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="84">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E27" s="85">
         <f>F24</f>
@@ -4376,7 +4376,7 @@
         <v>50</v>
       </c>
       <c r="D28" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="85">
         <f>F27</f>
@@ -4471,7 +4471,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="85">
         <f>F27</f>
@@ -4566,7 +4566,7 @@
         <v>50</v>
       </c>
       <c r="D30" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="85">
         <f>F27</f>
